--- a/Database2023429.xlsx
+++ b/Database2023429.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\SRTP\3模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{08FA8A70-FA5E-4C59-B98F-82BB8F9C7E0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{135D78EB-5A84-4207-8D01-0EEFD4B072A6}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{08FA8A70-FA5E-4C59-B98F-82BB8F9C7E0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{162D9B9F-92D4-4B39-A3DA-F5E2062CD222}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10032" windowHeight="5699" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,16 +34,10 @@
     <t>A添加剂种类mmol</t>
   </si>
   <si>
-    <t>A添加剂种类%</t>
-  </si>
-  <si>
     <t>B溶剂</t>
   </si>
   <si>
     <t>B添加剂种类mmol</t>
-  </si>
-  <si>
-    <t>B添加剂种类%</t>
   </si>
   <si>
     <t>H</t>
@@ -79,73 +73,13 @@
     <t>A添加剂种类浓度mmol</t>
   </si>
   <si>
-    <t>A添加剂种类浓度%</t>
-  </si>
-  <si>
     <t>B添加剂种类浓度mmol</t>
-  </si>
-  <si>
-    <t>B添加剂种类浓度%</t>
   </si>
   <si>
     <t>时间min</t>
   </si>
   <si>
     <t>比例A</t>
-  </si>
-  <si>
-    <t>时间min.1</t>
-  </si>
-  <si>
-    <t>比例A.1</t>
-  </si>
-  <si>
-    <t>时间min.2</t>
-  </si>
-  <si>
-    <t>比例A.2</t>
-  </si>
-  <si>
-    <t>时间min.3</t>
-  </si>
-  <si>
-    <t>比例A.3</t>
-  </si>
-  <si>
-    <t>时间min.4</t>
-  </si>
-  <si>
-    <t>比例A.4</t>
-  </si>
-  <si>
-    <t>时间min.5</t>
-  </si>
-  <si>
-    <t>比例A.5</t>
-  </si>
-  <si>
-    <t>时间min.6</t>
-  </si>
-  <si>
-    <t>比例A.6</t>
-  </si>
-  <si>
-    <t>时间min.7</t>
-  </si>
-  <si>
-    <t>比例A.7</t>
-  </si>
-  <si>
-    <t>时间min.8</t>
-  </si>
-  <si>
-    <t>比例A.8</t>
-  </si>
-  <si>
-    <t>时间min.9</t>
-  </si>
-  <si>
-    <t>比例A.9</t>
   </si>
   <si>
     <t>流速</t>
@@ -256,12 +190,100 @@
     <t>乙腈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>A添加剂种类percent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B添加剂种类percent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例A4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例A6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例A7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例A8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间min9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例A9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A添加剂种类浓度percent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B添加剂种类浓度percent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +303,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -318,9 +347,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -627,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N141" workbookViewId="0">
-      <selection activeCell="U156" sqref="U156"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -643,151 +675,151 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>1.03</v>
@@ -903,25 +935,25 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>1.03</v>
@@ -1037,25 +1069,25 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>1.03</v>
@@ -1171,25 +1203,25 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>1.03</v>
@@ -1305,25 +1337,25 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>1.03</v>
@@ -1439,25 +1471,25 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>1.03</v>
@@ -1573,25 +1605,25 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1707,25 +1739,25 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1841,25 +1873,25 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1975,25 +2007,25 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2109,25 +2141,25 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>0.99</v>
@@ -2243,25 +2275,25 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>0.99</v>
@@ -2377,25 +2409,25 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H14">
         <v>0.99</v>
@@ -2511,25 +2543,25 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H15">
         <v>0.99</v>
@@ -2645,25 +2677,25 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>0.99</v>
@@ -2779,25 +2811,25 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>0.99</v>
@@ -2913,25 +2945,25 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H18">
         <v>0.99</v>
@@ -3047,25 +3079,25 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H19">
         <v>0.94</v>
@@ -3181,25 +3213,25 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H20">
         <v>1.01</v>
@@ -3315,25 +3347,25 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H21">
         <v>1.01</v>
@@ -3449,25 +3481,25 @@
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H22">
         <v>1.01</v>
@@ -3583,25 +3615,25 @@
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>0.99</v>
@@ -3717,25 +3749,25 @@
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H24">
         <v>1.01</v>
@@ -3851,25 +3883,25 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H25">
         <v>1.01</v>
@@ -3985,25 +4017,25 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H26">
         <v>1.01</v>
@@ -4119,25 +4151,25 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H27">
         <v>1.01</v>
@@ -4253,25 +4285,25 @@
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H28">
         <v>0.96</v>
@@ -4387,25 +4419,25 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H29">
         <v>0.96</v>
@@ -4521,25 +4553,25 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H30">
         <v>0.96</v>
@@ -4655,25 +4687,25 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H31">
         <v>0.96</v>
@@ -4789,25 +4821,25 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H32">
         <v>0.96</v>
@@ -4923,25 +4955,25 @@
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H33">
         <v>0.96</v>
@@ -5057,25 +5089,25 @@
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H34">
         <v>0.96</v>
@@ -5191,25 +5223,25 @@
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H35">
         <v>0.94</v>
@@ -5325,25 +5357,25 @@
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H36">
         <v>0.94</v>
@@ -5459,25 +5491,25 @@
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H37">
         <v>0.94</v>
@@ -5593,25 +5625,25 @@
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H38">
         <v>0.94</v>
@@ -5727,25 +5759,25 @@
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H39">
         <v>0.94</v>
@@ -5861,25 +5893,25 @@
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H40">
         <v>0.94</v>
@@ -5995,25 +6027,25 @@
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H41">
         <v>0.94</v>
@@ -6129,25 +6161,25 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H42">
         <v>0.94</v>
@@ -6263,25 +6295,25 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H43">
         <v>0.94</v>
@@ -6397,25 +6429,25 @@
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H44">
         <v>0.94</v>
@@ -6531,25 +6563,25 @@
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H45">
         <v>0.94</v>
@@ -6665,25 +6697,25 @@
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H46">
         <v>0.94</v>
@@ -6799,25 +6831,25 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H47">
         <v>0.94</v>
@@ -6933,25 +6965,25 @@
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H48">
         <v>0.94</v>
@@ -7067,25 +7099,25 @@
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H49">
         <v>0.94</v>
@@ -7201,25 +7233,25 @@
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H50">
         <v>0.94</v>
@@ -7335,25 +7367,25 @@
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H51">
         <v>0.94</v>
@@ -7469,25 +7501,25 @@
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H52">
         <v>0.94</v>
@@ -7603,25 +7635,25 @@
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H53">
         <v>0.94</v>
@@ -7737,25 +7769,25 @@
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H54">
         <v>0.94</v>
@@ -7871,25 +7903,25 @@
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H55">
         <v>0.94</v>
@@ -8005,25 +8037,25 @@
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H56">
         <v>0.94</v>
@@ -8139,25 +8171,25 @@
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H57">
         <v>0.94</v>
@@ -8273,25 +8305,25 @@
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H58">
         <v>0.94</v>
@@ -8407,25 +8439,25 @@
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H59">
         <v>0.94</v>
@@ -8541,25 +8573,25 @@
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H60">
         <v>0.94</v>
@@ -8675,25 +8707,25 @@
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H61">
         <v>0.94</v>
@@ -8809,25 +8841,25 @@
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H62">
         <v>0.94</v>
@@ -8943,25 +8975,25 @@
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H63">
         <v>0.94</v>
@@ -9077,25 +9109,25 @@
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H64">
         <v>0.94</v>
@@ -9211,25 +9243,25 @@
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H65">
         <v>0.94</v>
@@ -9345,25 +9377,25 @@
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H66">
         <v>0.94</v>
@@ -9479,25 +9511,25 @@
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H67">
         <v>0.85</v>
@@ -9613,25 +9645,25 @@
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H68">
         <v>0.85</v>
@@ -9747,25 +9779,25 @@
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H69">
         <v>0.85</v>
@@ -9881,25 +9913,25 @@
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H70">
         <v>0.85</v>
@@ -10015,25 +10047,25 @@
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H71">
         <v>0.85</v>
@@ -10149,25 +10181,25 @@
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H72">
         <v>0.85</v>
@@ -10283,25 +10315,25 @@
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H73">
         <v>0.85</v>
@@ -10417,25 +10449,25 @@
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H74">
         <v>0.85</v>
@@ -10551,25 +10583,25 @@
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H75">
         <v>0.85</v>
@@ -10685,25 +10717,25 @@
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H76">
         <v>0.85</v>
@@ -10819,25 +10851,25 @@
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H77">
         <v>0.85</v>
@@ -10953,25 +10985,25 @@
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H78">
         <v>0.85</v>
@@ -11087,25 +11119,25 @@
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H79">
         <v>0.85</v>
@@ -11221,25 +11253,25 @@
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H80">
         <v>0.85</v>
@@ -11355,25 +11387,25 @@
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H81">
         <v>0.85</v>
@@ -11489,25 +11521,25 @@
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H82">
         <v>0.75</v>
@@ -11623,25 +11655,25 @@
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H83">
         <v>0.75</v>
@@ -11757,25 +11789,25 @@
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H84">
         <v>0.75</v>
@@ -11891,25 +11923,25 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H85">
         <v>1.01</v>
@@ -12025,25 +12057,25 @@
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H86">
         <v>1.01</v>
@@ -12159,25 +12191,25 @@
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H87">
         <v>0.75</v>
@@ -12293,25 +12325,25 @@
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H88">
         <v>0.75</v>
@@ -12427,25 +12459,25 @@
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D89" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H89">
         <v>0.9</v>
@@ -12561,25 +12593,25 @@
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H90">
         <v>0.9</v>
@@ -12695,25 +12727,25 @@
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H91">
         <v>0.9</v>
@@ -12829,25 +12861,25 @@
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H92">
         <v>0.9</v>
@@ -12963,25 +12995,25 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H93">
         <v>0.9</v>
@@ -13097,25 +13129,25 @@
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E94" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H94">
         <v>0.9</v>
@@ -13231,25 +13263,25 @@
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H95">
         <v>0.9</v>
@@ -13365,25 +13397,25 @@
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H96">
         <v>0.58099999999999996</v>
@@ -13499,25 +13531,25 @@
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H97">
         <v>0.58099999999999996</v>
@@ -13633,25 +13665,25 @@
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H98">
         <v>0.58099999999999996</v>
@@ -13767,25 +13799,25 @@
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H99">
         <v>0.58099999999999996</v>
@@ -13901,25 +13933,25 @@
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E100" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H100">
         <v>0.58099999999999996</v>
@@ -14035,25 +14067,25 @@
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H101">
         <v>0.88</v>
@@ -14169,25 +14201,25 @@
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E102" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H102">
         <v>0.88</v>
@@ -14303,25 +14335,25 @@
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H103">
         <v>0.88</v>
@@ -14437,25 +14469,25 @@
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E104" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H104">
         <v>0.88</v>
@@ -14571,25 +14603,25 @@
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E105" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -14705,25 +14737,25 @@
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -14839,25 +14871,25 @@
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -14973,25 +15005,25 @@
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -15107,25 +15139,25 @@
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -15241,25 +15273,25 @@
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -15375,25 +15407,25 @@
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -15509,25 +15541,25 @@
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -15643,25 +15675,25 @@
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H113">
         <v>1.03</v>
@@ -15777,25 +15809,25 @@
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H114">
         <v>1.03</v>
@@ -15911,25 +15943,25 @@
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H115">
         <v>1.03</v>
@@ -16045,25 +16077,25 @@
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H116">
         <v>1.03</v>
@@ -16179,25 +16211,25 @@
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H117">
         <v>1.03</v>
@@ -16313,25 +16345,25 @@
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H118">
         <v>1.03</v>
@@ -16447,25 +16479,25 @@
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H119">
         <v>1.05</v>
@@ -16581,25 +16613,25 @@
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H120">
         <v>1.05</v>
@@ -16715,25 +16747,25 @@
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H121">
         <v>1.05</v>
@@ -16849,25 +16881,25 @@
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H122">
         <v>1.05</v>
@@ -16983,25 +17015,25 @@
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H123">
         <v>0.98399999999999999</v>
@@ -17117,25 +17149,25 @@
     </row>
     <row r="124" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H124">
         <v>0.98399999999999999</v>
@@ -17251,25 +17283,25 @@
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H125">
         <v>0.98399999999999999</v>
@@ -17385,25 +17417,25 @@
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H126">
         <v>0.96</v>
@@ -17519,25 +17551,25 @@
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C127" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H127">
         <v>0.98399999999999999</v>
@@ -17653,25 +17685,25 @@
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H128">
         <v>0.96</v>
@@ -17787,25 +17819,25 @@
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G129" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H129">
         <v>0.98399999999999999</v>
@@ -17921,25 +17953,25 @@
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C130" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H130">
         <v>0.98399999999999999</v>
@@ -18055,25 +18087,25 @@
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C131" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E131" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H131">
         <v>0.86799999999999999</v>
@@ -18189,25 +18221,25 @@
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B132" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H132">
         <v>0.86799999999999999</v>
@@ -18323,25 +18355,25 @@
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C133" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H133">
         <v>0.86799999999999999</v>
@@ -18457,25 +18489,25 @@
     </row>
     <row r="134" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C134" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H134">
         <v>0.86799999999999999</v>
@@ -18591,25 +18623,25 @@
     </row>
     <row r="135" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E135" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G135" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H135">
         <v>0.86799999999999999</v>
@@ -18725,25 +18757,25 @@
     </row>
     <row r="136" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H136">
         <v>0.86799999999999999</v>
@@ -18859,25 +18891,25 @@
     </row>
     <row r="137" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H137">
         <v>0.86799999999999999</v>
@@ -18993,25 +19025,25 @@
     </row>
     <row r="138" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H138">
         <v>0.86799999999999999</v>
@@ -19127,25 +19159,25 @@
     </row>
     <row r="139" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E139" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G139" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H139">
         <v>0.86799999999999999</v>
@@ -19261,25 +19293,25 @@
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H140">
         <v>0.86799999999999999</v>
@@ -19395,25 +19427,25 @@
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" t="s">
+        <v>49</v>
+      </c>
+      <c r="E141" t="s">
+        <v>34</v>
+      </c>
+      <c r="F141" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
         <v>50</v>
-      </c>
-      <c r="B141" t="s">
-        <v>45</v>
-      </c>
-      <c r="C141" t="s">
-        <v>46</v>
-      </c>
-      <c r="D141" t="s">
-        <v>71</v>
-      </c>
-      <c r="E141" t="s">
-        <v>56</v>
-      </c>
-      <c r="F141" t="s">
-        <v>46</v>
-      </c>
-      <c r="G141" t="s">
-        <v>72</v>
       </c>
       <c r="H141">
         <v>0.86799999999999999</v>
@@ -19529,25 +19561,25 @@
     </row>
     <row r="142" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E142" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H142">
         <v>0.94</v>
@@ -19663,25 +19695,25 @@
     </row>
     <row r="143" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H143">
         <v>0.94</v>
@@ -19797,25 +19829,25 @@
     </row>
     <row r="144" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E144" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H144">
         <v>0.86799999999999999</v>
@@ -19931,25 +19963,25 @@
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C145" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E145" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H145">
         <v>0.86799999999999999</v>
@@ -20065,25 +20097,25 @@
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H146">
         <v>0.86799999999999999</v>
@@ -20199,25 +20231,25 @@
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B147" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E147" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G147" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H147">
         <v>0.86799999999999999</v>
@@ -20333,25 +20365,25 @@
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B148" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C148" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D148" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H148">
         <v>0.86799999999999999</v>
@@ -20467,25 +20499,25 @@
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C149" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E149" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H149">
         <v>0.86799999999999999</v>
@@ -20601,25 +20633,25 @@
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C150" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H150">
         <v>0.86799999999999999</v>
@@ -20735,25 +20767,25 @@
     </row>
     <row r="151" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C151" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E151" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H151">
         <v>0.98</v>
@@ -20869,25 +20901,25 @@
     </row>
     <row r="152" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C152" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H152">
         <v>1.03</v>
@@ -21003,25 +21035,25 @@
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B153" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E153" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G153" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H153">
         <v>1.03</v>
@@ -21137,25 +21169,25 @@
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G154" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H154">
         <v>1.03</v>
@@ -21271,25 +21303,25 @@
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C155" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G155" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H155">
         <v>1.03</v>
@@ -21405,25 +21437,25 @@
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C156" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E156" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G156" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H156">
         <v>1.03</v>
@@ -21539,25 +21571,25 @@
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E157" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H157">
         <v>1.03</v>
@@ -21673,25 +21705,25 @@
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C158" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E158" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H158">
         <v>1.03</v>
@@ -21807,25 +21839,25 @@
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E159" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G159" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H159">
         <v>1.03</v>
@@ -21941,25 +21973,25 @@
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B160" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E160" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H160">
         <v>0.94</v>
@@ -22075,25 +22107,25 @@
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C161" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H161">
         <v>0.94</v>
@@ -22209,25 +22241,25 @@
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C162" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H162">
         <v>0.94</v>
@@ -22343,25 +22375,25 @@
     </row>
     <row r="163" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H163">
         <v>0.94</v>
@@ -22477,25 +22509,25 @@
     </row>
     <row r="164" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C164" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H164">
         <v>1.03</v>
@@ -22611,25 +22643,25 @@
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C165" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E165" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H165">
         <v>1.03</v>
@@ -22745,25 +22777,25 @@
     </row>
     <row r="166" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C166" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E166" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H166">
         <v>1.03</v>
@@ -22879,25 +22911,25 @@
     </row>
     <row r="167" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C167" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E167" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H167">
         <v>1.03</v>
@@ -23013,25 +23045,25 @@
     </row>
     <row r="168" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C168" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E168" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H168">
         <v>1.03</v>
@@ -23147,25 +23179,25 @@
     </row>
     <row r="169" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E169" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H169">
         <v>1.03</v>
@@ -23281,25 +23313,25 @@
     </row>
     <row r="170" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B170" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C170" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E170" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H170">
         <v>0.85</v>
@@ -23415,25 +23447,25 @@
     </row>
     <row r="171" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C171" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E171" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H171">
         <v>0.85</v>
@@ -23549,25 +23581,25 @@
     </row>
     <row r="172" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E172" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H172">
         <v>0.75</v>
@@ -23683,25 +23715,25 @@
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B173" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C173" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H173">
         <v>1.03</v>
@@ -23817,25 +23849,25 @@
     </row>
     <row r="174" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C174" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E174" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G174" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H174">
         <v>1.03</v>
@@ -23951,25 +23983,25 @@
     </row>
     <row r="175" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C175" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E175" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H175">
         <v>1.03</v>
@@ -24085,25 +24117,25 @@
     </row>
     <row r="176" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B176" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C176" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E176" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H176">
         <v>1.07</v>
@@ -24219,25 +24251,25 @@
     </row>
     <row r="177" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C177" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E177" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G177" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H177">
         <v>0.59</v>
@@ -24353,25 +24385,25 @@
     </row>
     <row r="178" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B178" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C178" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E178" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H178">
         <v>0.59</v>
@@ -24487,25 +24519,25 @@
     </row>
     <row r="179" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B179" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C179" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E179" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H179">
         <v>0.59</v>
@@ -24621,25 +24653,25 @@
     </row>
     <row r="180" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C180" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H180">
         <v>0.59</v>
@@ -24755,25 +24787,25 @@
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B181" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E181" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H181">
         <v>0.59</v>
@@ -24889,25 +24921,25 @@
     </row>
     <row r="182" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C182" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E182" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G182" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H182">
         <v>0.75</v>
@@ -25023,25 +25055,25 @@
     </row>
     <row r="183" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C183" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D183" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E183" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H183">
         <v>0.9</v>
@@ -25157,25 +25189,25 @@
     </row>
     <row r="184" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B184" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D184" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E184" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H184">
         <v>0.9</v>
@@ -25291,25 +25323,25 @@
     </row>
     <row r="185" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C185" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E185" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H185">
         <v>0.59</v>
@@ -25425,25 +25457,25 @@
     </row>
     <row r="186" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C186" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E186" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H186">
         <v>0.59</v>
@@ -25559,25 +25591,25 @@
     </row>
     <row r="187" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B187" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C187" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E187" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H187">
         <v>0.59</v>
@@ -25693,25 +25725,25 @@
     </row>
     <row r="188" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C188" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E188" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F188" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H188">
         <v>0.59</v>
@@ -25827,25 +25859,25 @@
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B189" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C189" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D189" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E189" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H189">
         <v>0.59</v>
@@ -25961,25 +25993,25 @@
     </row>
     <row r="190" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B190" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C190" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H190">
         <v>0.59</v>
@@ -26095,25 +26127,25 @@
     </row>
     <row r="191" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C191" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E191" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G191" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H191">
         <v>0.59</v>
@@ -26229,25 +26261,25 @@
     </row>
     <row r="192" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C192" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D192" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E192" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G192" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H192">
         <v>0.58099999999999996</v>
@@ -26363,25 +26395,25 @@
     </row>
     <row r="193" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B193" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C193" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E193" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G193" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H193">
         <v>0.58099999999999996</v>
@@ -26497,25 +26529,25 @@
     </row>
     <row r="194" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B194" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C194" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E194" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G194" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H194">
         <v>0.58099999999999996</v>
@@ -26631,25 +26663,25 @@
     </row>
     <row r="195" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B195" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C195" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D195" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E195" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F195" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G195" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H195">
         <v>0.59</v>
@@ -26765,25 +26797,25 @@
     </row>
     <row r="196" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B196" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C196" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F196" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H196">
         <v>0.59</v>
@@ -26899,25 +26931,25 @@
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B197" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C197" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E197" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H197">
         <v>0.59</v>
@@ -27033,25 +27065,25 @@
     </row>
     <row r="198" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B198" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C198" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E198" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H198">
         <v>0.59</v>
@@ -27167,25 +27199,25 @@
     </row>
     <row r="199" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B199" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C199" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D199" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E199" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H199">
         <v>0.59</v>
@@ -27301,25 +27333,25 @@
     </row>
     <row r="200" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B200" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C200" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E200" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F200" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H200">
         <v>0.59</v>
@@ -27435,25 +27467,25 @@
     </row>
     <row r="201" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B201" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C201" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D201" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H201">
         <v>0.88</v>
@@ -27569,25 +27601,25 @@
     </row>
     <row r="202" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B202" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C202" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D202" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E202" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H202">
         <v>0.88</v>
@@ -27703,25 +27735,25 @@
     </row>
     <row r="203" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C203" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E203" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F203" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -27837,25 +27869,25 @@
     </row>
     <row r="204" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B204" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C204" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E204" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F204" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -27971,25 +28003,25 @@
     </row>
     <row r="205" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C205" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E205" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H205">
         <v>1.03</v>
@@ -28105,25 +28137,25 @@
     </row>
     <row r="206" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B206" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C206" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E206" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G206" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H206">
         <v>1.03</v>
@@ -28239,25 +28271,25 @@
     </row>
     <row r="207" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C207" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E207" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F207" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H207">
         <v>1.03</v>
@@ -28373,25 +28405,25 @@
     </row>
     <row r="208" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B208" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C208" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E208" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H208">
         <v>1.05</v>
@@ -28507,25 +28539,25 @@
     </row>
     <row r="209" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C209" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E209" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H209">
         <v>0.98399999999999999</v>
@@ -28641,25 +28673,25 @@
     </row>
     <row r="210" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C210" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E210" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H210">
         <v>0.98399999999999999</v>
@@ -28775,25 +28807,25 @@
     </row>
     <row r="211" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C211" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E211" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H211">
         <v>0.86799999999999999</v>
@@ -28909,25 +28941,25 @@
     </row>
     <row r="212" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B212" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C212" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D212" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E212" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F212" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G212" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H212">
         <v>0.86799999999999999</v>
@@ -29043,25 +29075,25 @@
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B213" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C213" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D213" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E213" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G213" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H213">
         <v>0.86799999999999999</v>
@@ -29177,25 +29209,25 @@
     </row>
     <row r="214" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C214" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D214" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E214" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G214" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H214">
         <v>0.86799999999999999</v>
@@ -29311,25 +29343,25 @@
     </row>
     <row r="215" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B215" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C215" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G215" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H215">
         <v>1.03</v>
@@ -29445,25 +29477,25 @@
     </row>
     <row r="216" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B216" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C216" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E216" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G216" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H216">
         <v>1.03</v>
@@ -29579,25 +29611,25 @@
     </row>
     <row r="217" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B217" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C217" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E217" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G217" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H217">
         <v>1.03</v>
@@ -29713,25 +29745,25 @@
     </row>
     <row r="218" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B218" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C218" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F218" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G218" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H218">
         <v>1.03</v>
@@ -29847,25 +29879,25 @@
     </row>
     <row r="219" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C219" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E219" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G219" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H219">
         <v>1.03</v>
@@ -29981,25 +30013,25 @@
     </row>
     <row r="220" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C220" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E220" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H220">
         <v>1.03</v>
@@ -30115,25 +30147,25 @@
     </row>
     <row r="221" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C221" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E221" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F221" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H221">
         <v>1.03</v>
@@ -30249,25 +30281,25 @@
     </row>
     <row r="222" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B222" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C222" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E222" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G222" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H222">
         <v>1.03</v>
@@ -30383,25 +30415,25 @@
     </row>
     <row r="223" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E223" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G223" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H223">
         <v>1.07</v>
@@ -30517,25 +30549,25 @@
     </row>
     <row r="224" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C224" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D224" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E224" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F224" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G224" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H224">
         <v>0.59</v>
@@ -30651,25 +30683,25 @@
     </row>
     <row r="225" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B225" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C225" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D225" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E225" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G225" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H225">
         <v>0.59</v>
@@ -30785,25 +30817,25 @@
     </row>
     <row r="226" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B226" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C226" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E226" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G226" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H226">
         <v>0.59</v>
@@ -30919,25 +30951,25 @@
     </row>
     <row r="227" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C227" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D227" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H227">
         <v>0.59</v>
@@ -31053,25 +31085,25 @@
     </row>
     <row r="228" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B228" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C228" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E228" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H228">
         <v>0.59</v>
@@ -31187,25 +31219,25 @@
     </row>
     <row r="229" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B229" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C229" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E229" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H229">
         <v>0.59</v>
